--- a/uploads/test.xlsx
+++ b/uploads/test.xlsx
@@ -2,17 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,14 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>matric_no</t>
+  </si>
   <si>
     <t>surname</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>other_names</t>
   </si>
   <si>
@@ -41,46 +36,32 @@
     <t>dept</t>
   </si>
   <si>
-    <t>faculty</t>
-  </si>
-  <si>
     <t>graduation</t>
   </si>
   <si>
+    <t>cse/2019/001</t>
+  </si>
+  <si>
     <t>jokotagba</t>
   </si>
   <si>
-    <t>pauljokotagba@gmail.com</t>
-  </si>
-  <si>
-    <t>Oreoluwa</t>
-  </si>
-  <si>
-    <t>first_class</t>
-  </si>
-  <si>
-    <t>computer</t>
-  </si>
-  <si>
-    <t>tech</t>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,16 +84,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,19 +369,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,37 +403,28 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>2018</v>
+      <c r="F2">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>